--- a/templates/Chart_guide.xlsx
+++ b/templates/Chart_guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="-150" windowWidth="30600" windowHeight="13740" tabRatio="913"/>
+    <workbookView xWindow="7215" yWindow="-150" windowWidth="30600" windowHeight="13740" tabRatio="913" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="21" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="268">
   <si>
     <t>Tax Revenue, 2008</t>
   </si>
@@ -527,9 +527,6 @@
     <t>FIGURE NUMBER</t>
   </si>
   <si>
-    <t>Calvert (Rockwell)</t>
-  </si>
-  <si>
     <t>ALL CAPS</t>
   </si>
   <si>
@@ -696,55 +693,6 @@
     <t>Avenir Roman</t>
   </si>
   <si>
-    <t>Avenir Roman Italics</t>
-  </si>
-  <si>
-    <t>Avenir Bold</t>
-  </si>
-  <si>
-    <r>
-      <t>Bold the words “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>” and “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>” as well as any statistical significance indicators.</t>
-    </r>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -846,20 +794,6 @@
     <t>Rate:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data from U.S. Census Bureau, Annual Survey of State and Local Government Finances, Government Finances, Volume 4, and Census of Governments (2012) downloaded from State &amp; Local Government Finance Data Query System, Tax Policy Center.</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;---The map is a png made on Adobe Illustrator and inserted here.</t>
   </si>
   <si>
@@ -905,27 +839,6 @@
     <t xml:space="preserve">*If there are two layers of column heads, the top layer should be in title case, the bottom layer in sentence case. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>Capitalization:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Titles should be in title case but everything else, should be in sentence case.</t>
-    </r>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -938,67 +851,71 @@
     <t>Table:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Logo: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Logo should always be .63" by .74". Copy the logo to the right if you have any questions. </t>
-    </r>
+    <t>US rate: xx%.</t>
+  </si>
+  <si>
+    <t>&lt;---The map is a png made on Adobe Illustrator and inserted here. The scale version of the map should only be used when data is sequential. Colors should therefore be from the TPC sequential pallette (all blues).</t>
+  </si>
+  <si>
+    <t>Please email Ann at acleven@urban.org if you have any other questions.</t>
+  </si>
+  <si>
+    <t>Calvert</t>
+  </si>
+  <si>
+    <t>Avenir LT Pro 55 Roman</t>
+  </si>
+  <si>
+    <t>Avenir LT Pro 55 Roman (italics)</t>
+  </si>
+  <si>
+    <t>Avenir LT Pro 55 Roman (bold)</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Social Security Administration, Annual Statistical Supplement to the Social Security Bulletin, 2014, Tables 4.A1 and 4.A2.
-</t>
+      <t>Bold the words “</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Note: </t>
+      <t>Source</t>
     </r>
     <r>
       <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
-      <t>Note here.
-(a) Footnote here.</t>
+      <t>” and “</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>” as well as any statistical significance indicators.</t>
+    </r>
+  </si>
+  <si>
+    <t>Avenir Lt Pro 55 Roman</t>
   </si>
   <si>
     <r>
@@ -1006,7 +923,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>Colors:</t>
@@ -1015,7 +932,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> This file comes pre-populated with TPC colors. There is a categorical set (reds, yellows, blues) and a sequential set (all shades of blue). Please use the correct version based on the chart's meaning (reference the TPC Dataviz styleguide if you have questions). If changing colors would not signify anything, just use one color. For example, pie chart slices do not and should not be in separate colors unless you are showing a part-to-whole comparison.</t>
@@ -1027,7 +944,70 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sources and notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>These should always end in a period. The optimal way to source something is to provide the author's name and the year (e.g., Len Burman, 2004.) and give a more complete citation in the reference portion of the paper. If there are multiple sources, separate them with a semicolon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Logo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Logo should always be .63" by .74". Copy the logo to the right if you have any questions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Capitalization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Titles should be in title case but everything else, should be in sentence case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>Footnotes:</t>
@@ -1036,7 +1016,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Denote footnotes with a superscript letter such as </t>
@@ -1046,7 +1026,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">a </t>
@@ -1055,7 +1035,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>then assign it meaning by putting (a) underneath the source and note infromation. See the worksheet titled "Table" for an example.</t>
@@ -1067,7 +1047,28 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPC dataviz style guide:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Use following link to access http://ui-research.github.io/TPC-styleguide/ .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Pie charts: </t>
@@ -1076,7 +1077,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>We all instinctively make pie charts when we want to show the the composition of the total but studies show that pie charts are not easy for the human eye to digest (see the TPC dataviz style guide for more information). Please restrain the use of pie charts to the following two scenarios: 1) when there are only two or three parts; and 2) when doing a part-to-whole comparison. If you do use pie charts, make all the slices the same color unless 1) the color actually denotes something; or 2) when doing a part-to-whole comparison and you want to highlight one element of the chart.</t>
@@ -1088,28 +1089,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sources and notes: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>These should always end in a period. The optimal way to source something is to provide the author's name and the year (e.g., Len Burman, 2004.) and give a more complete citation in the reference portion of the paper. If there are multiple sources, separate them with a semicolon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Writing out dates: </t>
@@ -1118,7 +1098,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>Use en-dashes when separating two numbers. If you are writing a year range that spans two millenia, write both years in full. If the years are in the same millenium, write the prefix once. For example, 1950–20015 versus 2005–15.</t>
@@ -1130,37 +1110,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>TPC dataviz style guide:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Use following link to access http://ui-research.github.io/TPC-styleguide/ .</t>
-    </r>
-  </si>
-  <si>
-    <t>Please email Joey at jteitelbaum@urban.org if you have any other questions.</t>
-  </si>
-  <si>
-    <t>US rate: xx%.</t>
-  </si>
-  <si>
-    <t>&lt;---The map is a png made on Adobe Illustrator and inserted here. The scale version of the map should only be used when data is sequential. Colors should therefore be from the TPC sequential pallette (all blues).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t>Style manual:</t>
@@ -1169,10 +1119,66 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Avenir LT Std 55 Roman"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> If you have any grammatical concerns, default to Chicago style. That means doing "US" rather than "U.S." when abbreviating United States. Please refrain from using ampersands (&amp;) as well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data from U.S. Census Bureau, Annual Survey of State and Local Government Finances, Government Finances, Volume 4, and Census of Governments (2012) downloaded from State &amp; Local Government Finance Data Query System, Tax Policy Center.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Social Security Administration, Annual Statistical Supplement to the Social Security Bulletin, 2014, Tables 4.A1 and 4.A2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="Avenir LT Pro 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note here.
+(a) Footnote here.</t>
     </r>
   </si>
 </sst>
@@ -1198,7 +1204,7 @@
     <numFmt numFmtId="175" formatCode=";;;"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="89">
+  <fonts count="100">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1466,12 +1472,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Avenir LT Std 55 Roman"/>
@@ -1495,13 +1495,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Avenir LT Std 55 Roman"/>
@@ -1514,44 +1507,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFDD0806"/>
       <name val="Rockwell"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Avenir LT Std 45 Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Avenir LT Std 45 Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1560,13 +1519,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="Avenir LT Std 55 Roman"/>
@@ -1594,17 +1546,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Avenir LT Std 55 Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Avenir LT Std 55 Roman"/>
       <family val="2"/>
     </font>
@@ -1739,16 +1680,149 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Avenir LT Std 55 Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="Rockwell"/>
-      <family val="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Avenir LT Pro 55 Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2309,25 +2383,25 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="13">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="13">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="13">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="13">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="14">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="14">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2340,37 +2414,37 @@
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="81" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2547,184 +2621,136 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="46" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="47" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="45" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="58" fillId="3" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="176" fontId="58" fillId="3" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="58" fillId="3" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="58" fillId="3" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="51"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="51" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="92"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="92" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="22" xfId="92" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="92" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="22" xfId="92" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="92" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="92" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="92" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="22" xfId="92" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="92" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="22" xfId="92" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="38" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="0" xfId="92" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="92" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="92" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2747,28 +2773,90 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="92" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="82" fillId="3" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="176" fontId="82" fillId="3" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="82" fillId="3" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="82" fillId="3" borderId="12" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="4" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="4" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -2990,11 +3078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="123732352"/>
-        <c:axId val="123735040"/>
+        <c:axId val="147353600"/>
+        <c:axId val="147355136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123732352"/>
+        <c:axId val="147353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,13 +3107,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123735040"/>
+        <c:crossAx val="147355136"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +3121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123735040"/>
+        <c:axId val="147355136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -3067,13 +3155,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123732352"/>
+        <c:crossAx val="147353600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -3667,11 +3755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102540416"/>
-        <c:axId val="102541952"/>
+        <c:axId val="148457728"/>
+        <c:axId val="148475904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102540416"/>
+        <c:axId val="148457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,13 +3775,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1050">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102541952"/>
+        <c:crossAx val="148475904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3701,7 +3789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102541952"/>
+        <c:axId val="148475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,13 +3821,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1050">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102540416"/>
+        <c:crossAx val="148457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,7 +3851,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1100">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -5069,11 +5157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102968704"/>
-        <c:axId val="102974592"/>
+        <c:axId val="148509440"/>
+        <c:axId val="148510976"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="102968704"/>
+        <c:axId val="148509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,13 +5177,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1050">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102974592"/>
+        <c:crossAx val="148510976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5103,7 +5191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102974592"/>
+        <c:axId val="148510976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5135,14 +5223,14 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Avenir Medium"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102968704"/>
+        <c:crossAx val="148509440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5166,7 +5254,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1100">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:defRPr>
           </a:pPr>
@@ -5252,7 +5340,7 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr sz="1200" b="1">
-                      <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                      <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
@@ -5272,7 +5360,7 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr>
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -5549,11 +5637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107778816"/>
-        <c:axId val="107780352"/>
+        <c:axId val="146679680"/>
+        <c:axId val="146681216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107778816"/>
+        <c:axId val="146679680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,13 +5665,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107780352"/>
+        <c:crossAx val="146681216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5591,7 +5679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107780352"/>
+        <c:axId val="146681216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13000000"/>
@@ -5626,13 +5714,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107778816"/>
+        <c:crossAx val="146679680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6006,11 +6094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120293248"/>
-        <c:axId val="120294784"/>
+        <c:axId val="148343808"/>
+        <c:axId val="148349696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120293248"/>
+        <c:axId val="148343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6026,13 +6114,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120294784"/>
+        <c:crossAx val="148349696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6040,7 +6128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120294784"/>
+        <c:axId val="148349696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,13 +6160,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120293248"/>
+        <c:crossAx val="148343808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6218,7 +6306,7 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr>
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -6411,7 +6499,7 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1100">
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -6470,11 +6558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="120397184"/>
-        <c:axId val="120407168"/>
+        <c:axId val="148960000"/>
+        <c:axId val="148961536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120397184"/>
+        <c:axId val="148960000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6490,13 +6578,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120407168"/>
+        <c:crossAx val="148961536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6504,7 +6592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120407168"/>
+        <c:axId val="148961536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,7 +6602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120397184"/>
+        <c:crossAx val="148960000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6717,7 +6805,7 @@
               <a:p>
                 <a:pPr algn="l">
                   <a:defRPr sz="1100">
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -6951,11 +7039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="120937088"/>
-        <c:axId val="120947072"/>
+        <c:axId val="148573568"/>
+        <c:axId val="148026496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120937088"/>
+        <c:axId val="148573568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6970,13 +7058,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120947072"/>
+        <c:crossAx val="148026496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6984,7 +7072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120947072"/>
+        <c:axId val="148026496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,13 +7104,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120937088"/>
+        <c:crossAx val="148573568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7111,7 +7199,7 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1100">
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -7188,11 +7276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="93798784"/>
-        <c:axId val="93800320"/>
+        <c:axId val="147208064"/>
+        <c:axId val="147209600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93798784"/>
+        <c:axId val="147208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,13 +7305,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93800320"/>
+        <c:crossAx val="147209600"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7231,7 +7319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93800320"/>
+        <c:axId val="147209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -7243,7 +7331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93798784"/>
+        <c:crossAx val="147208064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -7477,11 +7565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="94896896"/>
-        <c:axId val="94898432"/>
+        <c:axId val="147490688"/>
+        <c:axId val="147492224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94896896"/>
+        <c:axId val="147490688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7504,13 +7592,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94898432"/>
+        <c:crossAx val="147492224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7518,7 +7606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94898432"/>
+        <c:axId val="147492224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20"/>
@@ -7551,13 +7639,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94896896"/>
+        <c:crossAx val="147490688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -7705,7 +7793,7 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1100">
-                    <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -7949,11 +8037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="30"/>
-        <c:axId val="94978432"/>
-        <c:axId val="94979968"/>
+        <c:axId val="147819520"/>
+        <c:axId val="147821312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94978432"/>
+        <c:axId val="147819520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7977,13 +8065,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94979968"/>
+        <c:crossAx val="147821312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7993,7 +8081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94979968"/>
+        <c:axId val="147821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -8026,13 +8114,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr>
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94978432"/>
+        <c:crossAx val="147819520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -9030,11 +9118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95015680"/>
-        <c:axId val="95017216"/>
+        <c:axId val="147852672"/>
+        <c:axId val="147854464"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="95015680"/>
+        <c:axId val="147852672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9062,7 +9150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95017216"/>
+        <c:crossAx val="147854464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9072,7 +9160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95017216"/>
+        <c:axId val="147854464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9152,7 +9240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95015680"/>
+        <c:crossAx val="147852672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10201,11 +10289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95049600"/>
-        <c:axId val="95051136"/>
+        <c:axId val="147928192"/>
+        <c:axId val="147929728"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="95049600"/>
+        <c:axId val="147928192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10229,13 +10317,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95051136"/>
+        <c:crossAx val="147929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10245,7 +10333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95051136"/>
+        <c:axId val="147929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10279,13 +10367,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95049600"/>
+        <c:crossAx val="147928192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
@@ -11226,8 +11314,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95142272"/>
-        <c:axId val="95143808"/>
+        <c:axId val="147605376"/>
+        <c:axId val="147606912"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11489,11 +11577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95142272"/>
-        <c:axId val="95143808"/>
+        <c:axId val="147605376"/>
+        <c:axId val="147606912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95142272"/>
+        <c:axId val="147605376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11509,13 +11597,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr>
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95143808"/>
+        <c:crossAx val="147606912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11525,7 +11613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95143808"/>
+        <c:axId val="147606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11557,13 +11645,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr>
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95142272"/>
+        <c:crossAx val="147605376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13649,11 +13737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99242368"/>
-        <c:axId val="99243904"/>
+        <c:axId val="147584512"/>
+        <c:axId val="147586048"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="99242368"/>
+        <c:axId val="147584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13669,13 +13757,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99243904"/>
+        <c:crossAx val="147586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13685,7 +13773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99243904"/>
+        <c:axId val="147586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,13 +13790,13 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1100">
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99242368"/>
+        <c:crossAx val="147584512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13732,7 +13820,7 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1100">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -14345,11 +14433,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="102231040"/>
-        <c:axId val="102499072"/>
+        <c:axId val="147743104"/>
+        <c:axId val="147744640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102231040"/>
+        <c:axId val="147743104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14376,7 +14464,7 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Avenir Medium"/>
               </a:defRPr>
@@ -14384,7 +14472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102499072"/>
+        <c:crossAx val="147744640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14392,7 +14480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102499072"/>
+        <c:axId val="147744640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14436,7 +14524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102231040"/>
+        <c:crossAx val="147743104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14477,7 +14565,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Avenir Medium"/>
             </a:defRPr>
@@ -14685,7 +14773,27 @@
               <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
-            <a:t>OECD Tax Statistics, 2010.</a:t>
+            <a:t>OECD Tax </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Avenir Medium"/>
+            </a:rPr>
+            <a:t>Statistics</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Avenir Medium"/>
+            </a:rPr>
+            <a:t>, 2010.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -14750,7 +14858,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -14766,7 +14874,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -14991,7 +15099,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -15007,7 +15115,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -15022,7 +15130,7 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Avenir Medium"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
@@ -15036,7 +15144,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -15341,7 +15449,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Non-refundable element of CTC</a:t>
@@ -15494,7 +15602,7 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Refundable element of CTC</a:t>
@@ -15794,7 +15902,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Refundable element of EITC</a:t>
@@ -15944,7 +16052,7 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Verdana"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16014,7 +16122,7 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Verdana"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16084,7 +16192,7 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Verdana"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16138,7 +16246,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Verdana"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16208,7 +16316,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Arial"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16219,7 +16327,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Arial"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16292,7 +16400,7 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16365,7 +16473,7 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16487,7 +16595,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16503,7 +16611,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16518,7 +16626,7 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Avenir Medium"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
@@ -16532,7 +16640,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -16671,7 +16779,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>This is the Title and It Explains the Chart</a:t>
@@ -16680,14 +16788,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>This is the subtitle</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t> and it gives further context</a:t>
@@ -16695,20 +16803,20 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US" sz="1200" baseline="0">
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1200" i="1" baseline="0">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Y-axis units</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" i="1">
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
         </a:p>
@@ -16776,14 +16884,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>1950-2006:Budget of the United States Government, Fiscal Year 2008, HISTORICAL TABLES, Table 2.1 Receipts by Source: 1934-2012, available at http://www.whitehouse.gov/omb/budget/fy2008/sheets/hist02z3.xls; 2007-2008: Congressional Budget Office, A Preliminary Analysis of the President's Budget and an Update of CBO's Budget and Economic Outlook, March 2009, Table F-3, available at http://www.cbo.gov/ftpdocs/100xx/doc10014/HistoricalMar09.pdf.</a:t>
@@ -17079,7 +17187,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17095,7 +17203,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17105,7 +17213,7 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Avenir Medium"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
@@ -17238,7 +17346,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17254,7 +17362,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17404,14 +17512,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -17523,7 +17631,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17539,7 +17647,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17689,14 +17797,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -17845,7 +17953,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -17861,7 +17969,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18011,14 +18119,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -18167,7 +18275,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18183,7 +18291,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18198,7 +18306,7 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="Avenir Medium"/>
             <a:cs typeface="Avenir Medium"/>
           </a:endParaRPr>
@@ -18212,7 +18320,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18362,14 +18470,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -18580,7 +18688,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18596,7 +18704,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18796,14 +18904,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Burman, Leonard E., Christopher Geissler, and Eric J. Toder. Forthcoming "The Growth, Distribution, and Opportunity Cost of Individual Tax Expenditures." Tax Policy Center Discussion Paper. </a:t>
@@ -18953,7 +19061,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18964,7 +19072,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -18980,7 +19088,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19105,7 +19213,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19121,7 +19229,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19362,14 +19470,14 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Tax and Expenditure Limits by State</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" baseline="0">
             <a:effectLst/>
-            <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -19475,14 +19583,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>NASBO, 2015</a:t>
@@ -19491,14 +19599,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Notes:  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Delaware has been added and Illinois removed from source data. Alaska and Hawaii are not drawn to size </a:t>
@@ -19908,7 +20016,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19924,7 +20032,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19969,7 +20077,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19980,7 +20088,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -19996,7 +20104,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Rockwell"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -20238,7 +20346,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -20254,7 +20362,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -20462,155 +20570,6 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.00564</cdr:x>
-      <cdr:y>0.0184</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.35543</cdr:x>
-      <cdr:y>0.50577</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="51974" y="135248"/>
-          <a:ext cx="3223373" cy="3582376"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Rockwell"/>
-              <a:ea typeface="Rockwell"/>
-              <a:cs typeface="Rockwell"/>
-            </a:rPr>
-            <a:t>FIGURE 16</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="Avenir Medium"/>
-            <a:ea typeface="Avenir Medium"/>
-            <a:cs typeface="Avenir Medium"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Avenir Medium"/>
-              <a:cs typeface="Avenir Medium"/>
-            </a:rPr>
-            <a:t>Title of the Chart Here</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Avenir Medium"/>
-              <a:cs typeface="Avenir Medium"/>
-            </a:rPr>
-            <a:t>Subtitle of the chart here</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.00564</cdr:x>
       <cdr:y>0.82877</cdr:y>
     </cdr:from>
     <cdr:to>
@@ -20748,14 +20707,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -20892,7 +20851,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -20908,7 +20867,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21058,14 +21017,14 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Source: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000">
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
             <a:t>Urban-Brookings Tax Policy Center Microsimulation Model (version 1006-1).</a:t>
@@ -21245,7 +21204,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21261,7 +21220,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21272,7 +21231,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21455,7 +21414,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21471,7 +21430,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21740,7 +21699,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -21756,7 +21715,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -22062,7 +22021,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -22078,7 +22037,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Avenir LT Std 55 Roman" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir LT Pro 55 Roman" panose="020B0503020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Avenir Medium"/>
               <a:cs typeface="Avenir Medium"/>
             </a:rPr>
@@ -23718,8 +23677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -23728,109 +23687,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+    </row>
+    <row r="2" spans="1:6" ht="66.75" customHeight="1">
+      <c r="A2" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+    </row>
+    <row r="3" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A3" s="174" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A4" s="174" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A5" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+    </row>
+    <row r="6" spans="1:6" ht="39" customHeight="1">
+      <c r="A6" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="174" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+    </row>
+    <row r="8" spans="1:6" ht="84.75" customHeight="1">
+      <c r="A8" s="174" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A9" s="174" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A10" s="174" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="153"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="175" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="66.75" customHeight="1">
-      <c r="A2" s="176" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-    </row>
-    <row r="3" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A3" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A4" s="176" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A5" s="176" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1">
-      <c r="A6" s="176" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="176" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-    </row>
-    <row r="8" spans="1:6" ht="84.75" customHeight="1">
-      <c r="A8" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A9" s="176" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-    </row>
-    <row r="10" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A10" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23858,7 +23830,7 @@
   </sheetPr>
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G22" workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
@@ -23873,24 +23845,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
@@ -24361,15 +24333,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="I29" s="166" t="s">
+      <c r="I29" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="17">
@@ -24393,13 +24365,13 @@
       <c r="G30" s="21">
         <v>1980</v>
       </c>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="17">
@@ -24421,13 +24393,13 @@
         <v>19.3</v>
       </c>
       <c r="G31" s="20"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="17">
@@ -25930,8 +25902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -25955,16 +25927,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>56</v>
@@ -27210,8 +27182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX272"/>
   <sheetViews>
-    <sheetView topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="11.1" customHeight="1"/>
@@ -27306,10 +27278,10 @@
     <row r="2" spans="1:76" ht="15.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>56</v>
@@ -27318,10 +27290,10 @@
         <v>92</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -28278,10 +28250,10 @@
     <row r="13" spans="1:76" ht="15.75" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>56</v>
@@ -28290,10 +28262,10 @@
         <v>92</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -32512,7 +32484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX276"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
+    <sheetView topLeftCell="G25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
@@ -32608,10 +32580,10 @@
     <row r="2" spans="1:76" ht="15.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>56</v>
@@ -32620,10 +32592,10 @@
         <v>92</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -38222,8 +38194,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" topLeftCell="A4" colorId="22" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView defaultGridColor="0" topLeftCell="A10" colorId="22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -38421,7 +38393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -38557,8 +38529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -38627,24 +38599,24 @@
     </row>
     <row r="4" spans="1:11" s="37" customFormat="1"/>
     <row r="5" spans="1:11" s="37" customFormat="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
     </row>
     <row r="6" spans="1:11" s="37" customFormat="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
     </row>
     <row r="19" spans="14:14">
-      <c r="N19" s="172" t="s">
-        <v>246</v>
+      <c r="N19" s="128" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -38665,7 +38637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -38681,10 +38653,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>56</v>
@@ -38693,10 +38665,10 @@
         <v>92</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -38737,7 +38709,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="M13" s="25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N13" s="52">
         <v>77519245</v>
@@ -38745,7 +38717,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="M14" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N14" s="52">
         <v>87915690</v>
@@ -38753,7 +38725,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="M15" s="25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N15" s="52">
         <v>93504435</v>
@@ -38761,15 +38733,15 @@
     </row>
     <row r="16" spans="1:14">
       <c r="M16" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N16" s="52">
         <v>265285834</v>
       </c>
     </row>
     <row r="19" spans="13:13">
-      <c r="M19" s="172" t="s">
-        <v>246</v>
+      <c r="M19" s="128" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -38791,7 +38763,7 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -38806,30 +38778,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A1" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
+      <c r="A1" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A3" s="174" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="144"/>
+      <c r="A3" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4"/>
     </row>
     <row r="5" spans="1:9" s="69" customFormat="1" ht="31.5">
       <c r="A5" s="80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>139</v>
@@ -38853,264 +38825,248 @@
       <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="108">
+        <v>12</v>
+      </c>
+      <c r="D6" s="108">
+        <v>8</v>
+      </c>
+      <c r="E6" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="128">
+      <c r="F6" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="108"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" s="153" customFormat="1" ht="23.25">
+      <c r="A7" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="152">
+        <v>18</v>
+      </c>
+      <c r="D7" s="152">
         <v>12</v>
       </c>
-      <c r="D6" s="128">
+      <c r="E7" s="152" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="159" customFormat="1" ht="18.75">
+      <c r="A8" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="154">
+        <v>14</v>
+      </c>
+      <c r="D8" s="154">
+        <v>9.5</v>
+      </c>
+      <c r="E8" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="153" customFormat="1">
+      <c r="A9" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="155">
+        <v>12</v>
+      </c>
+      <c r="D9" s="155">
+        <v>8.5</v>
+      </c>
+      <c r="E9" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="157" customFormat="1" ht="15">
+      <c r="A10" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="156">
+        <v>11</v>
+      </c>
+      <c r="D10" s="156">
+        <v>8.5</v>
+      </c>
+      <c r="E10" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="157" customFormat="1" ht="15">
+      <c r="A11" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="156">
+        <v>11</v>
+      </c>
+      <c r="D11" s="156">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="161" customFormat="1" ht="15">
+      <c r="A12" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="160" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="160">
+        <v>11</v>
+      </c>
+      <c r="D12" s="160">
+        <v>9.5</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="157" customFormat="1" ht="15">
+      <c r="A13" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="156">
+        <v>11</v>
+      </c>
+      <c r="D13" s="156">
+        <v>8.5</v>
+      </c>
+      <c r="E13" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="156" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="163" customFormat="1" ht="12.75">
+      <c r="A14" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="162" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="162">
+        <v>10</v>
+      </c>
+      <c r="D14" s="162">
         <v>8</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.25">
-      <c r="A7" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="104">
-        <v>18</v>
-      </c>
-      <c r="D7" s="104">
-        <v>12</v>
-      </c>
-      <c r="E7" s="104" t="s">
+      <c r="E14" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
-      <c r="A8" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="82">
-        <v>14</v>
-      </c>
-      <c r="D8" s="82">
-        <v>9.5</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="105">
-        <v>12</v>
-      </c>
-      <c r="D9" s="105">
-        <v>8.5</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="106">
-        <v>11</v>
-      </c>
-      <c r="D10" s="106">
-        <v>8.5</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="106">
-        <v>11</v>
-      </c>
-      <c r="D11" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="107">
-        <v>11</v>
-      </c>
-      <c r="D12" s="107">
-        <v>9.5</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="106">
-        <v>11</v>
-      </c>
-      <c r="D13" s="106">
-        <v>8.5</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="108">
-        <v>10</v>
-      </c>
-      <c r="D14" s="106">
-        <v>8</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="G14" s="162" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="23.25">
-      <c r="A16" s="174" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
+      <c r="A16" s="131" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>139</v>
@@ -39125,280 +39081,268 @@
         <v>142</v>
       </c>
       <c r="F18" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="108">
+        <v>12</v>
+      </c>
+      <c r="D19" s="108">
+        <v>8</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="108"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="82"/>
+    </row>
+    <row r="20" spans="1:12" s="172" customFormat="1" ht="23.25">
+      <c r="A20" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="103">
+        <v>18</v>
+      </c>
+      <c r="D20" s="103">
+        <v>12</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="159" customFormat="1" ht="18.75">
+      <c r="A21" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="154">
+        <v>14</v>
+      </c>
+      <c r="D21" s="154">
+        <v>9.5</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="157" customFormat="1" ht="15">
+      <c r="A22" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="169" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="169">
+        <v>11</v>
+      </c>
+      <c r="D22" s="169">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="169" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="169" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="169" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+    </row>
+    <row r="23" spans="1:12" s="157" customFormat="1" ht="15">
+      <c r="A23" s="166" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="B23" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="166">
+        <v>11</v>
+      </c>
+      <c r="D23" s="166">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="166" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="166" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="I23" s="166" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="167"/>
+      <c r="K23" s="168"/>
+    </row>
+    <row r="24" spans="1:12" s="157" customFormat="1" ht="15">
+      <c r="A24" s="165" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="165" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="165">
+        <v>11</v>
+      </c>
+      <c r="D24" s="165">
+        <v>9.5</v>
+      </c>
+      <c r="E24" s="165" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="I18" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="83"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="128">
-        <v>12</v>
-      </c>
-      <c r="D19" s="128">
+      <c r="I24" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="164" customFormat="1" ht="15">
+      <c r="A25" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="107">
+        <v>11</v>
+      </c>
+      <c r="D25" s="107">
+        <v>9.5</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="104" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="163" customFormat="1" ht="12.75">
+      <c r="A26" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="162" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="162">
+        <v>10</v>
+      </c>
+      <c r="D26" s="162">
         <v>8</v>
       </c>
-      <c r="E19" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128" t="s">
-        <v>226</v>
-      </c>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="83"/>
-    </row>
-    <row r="20" spans="1:12" ht="23.25">
-      <c r="A20" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="104">
-        <v>18</v>
-      </c>
-      <c r="D20" s="104">
-        <v>12</v>
-      </c>
-      <c r="E20" s="104" t="s">
+      <c r="E26" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75">
-      <c r="A21" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="82">
-        <v>14</v>
-      </c>
-      <c r="D21" s="82">
-        <v>9.5</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="J21" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="125">
-        <v>11</v>
-      </c>
-      <c r="D22" s="125">
-        <v>8.5</v>
-      </c>
-      <c r="E22" s="125" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="125" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="83"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="126" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="126">
-        <v>11</v>
-      </c>
-      <c r="D23" s="126">
-        <v>8.5</v>
-      </c>
-      <c r="E23" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="126" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="126" t="s">
-        <v>217</v>
-      </c>
-      <c r="I23" s="126" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="122"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="83"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="127" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="127">
-        <v>11</v>
-      </c>
-      <c r="D24" s="127">
-        <v>9.5</v>
-      </c>
-      <c r="E24" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="I24" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="124" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="124">
-        <v>11</v>
-      </c>
-      <c r="D25" s="124">
-        <v>9.5</v>
-      </c>
-      <c r="E25" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="124" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="124" t="s">
+      <c r="G26" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="124" t="s">
-        <v>228</v>
-      </c>
-      <c r="J25" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="108">
-        <v>10</v>
-      </c>
-      <c r="D26" s="106">
-        <v>8</v>
-      </c>
-      <c r="E26" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
+      <c r="J26" s="162" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="78.75">
-      <c r="A28" s="173" t="s">
-        <v>248</v>
+      <c r="A28" s="129" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5">
@@ -39411,11 +39355,11 @@
       <c r="A34" s="72"/>
     </row>
     <row r="35" spans="1:5" ht="72.75" customHeight="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="72"/>
@@ -39726,112 +39670,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="132" customWidth="1"/>
-    <col min="2" max="2" width="6" style="132" customWidth="1"/>
-    <col min="3" max="11" width="9" style="132"/>
-    <col min="12" max="12" width="4.875" style="132" customWidth="1"/>
-    <col min="13" max="13" width="1.375" style="132" customWidth="1"/>
-    <col min="14" max="14" width="3.75" style="132" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="132"/>
+    <col min="1" max="1" width="1.375" style="112" customWidth="1"/>
+    <col min="2" max="2" width="6" style="112" customWidth="1"/>
+    <col min="3" max="11" width="9" style="112"/>
+    <col min="12" max="12" width="4.875" style="112" customWidth="1"/>
+    <col min="13" max="13" width="1.375" style="112" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="112" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="6" customHeight="1"/>
     <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="147" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="B7" s="176" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="2:7" ht="4.5" customHeight="1">
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="171" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
+      <c r="B9" s="177" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="171" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="171"/>
+      <c r="B10" s="177" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="127"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1"/>
     <row r="17" spans="13:15">
-      <c r="O17" s="170" t="s">
-        <v>264</v>
+      <c r="O17" s="126" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="13:15" ht="8.25" customHeight="1">
-      <c r="M18" s="143"/>
+      <c r="M18" s="123"/>
     </row>
     <row r="19" spans="13:15">
-      <c r="M19" s="143"/>
+      <c r="M19" s="123"/>
     </row>
     <row r="20" spans="13:15">
-      <c r="M20" s="143"/>
+      <c r="M20" s="123"/>
     </row>
     <row r="21" spans="13:15">
-      <c r="M21" s="143"/>
+      <c r="M21" s="123"/>
     </row>
     <row r="22" spans="13:15">
-      <c r="M22" s="143"/>
+      <c r="M22" s="123"/>
     </row>
     <row r="23" spans="13:15">
-      <c r="M23" s="143"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="13:15">
-      <c r="M24" s="143"/>
+      <c r="M24" s="123"/>
     </row>
     <row r="25" spans="13:15">
-      <c r="M25" s="143"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="13:15">
-      <c r="M26" s="143"/>
+      <c r="M26" s="123"/>
     </row>
     <row r="27" spans="13:15">
-      <c r="M27" s="143"/>
+      <c r="M27" s="123"/>
     </row>
     <row r="28" spans="13:15">
-      <c r="M28" s="143"/>
+      <c r="M28" s="123"/>
     </row>
     <row r="29" spans="13:15">
-      <c r="M29" s="143"/>
+      <c r="M29" s="123"/>
     </row>
     <row r="32" spans="13:15" ht="36.75" customHeight="1"/>
     <row r="33" spans="2:12" ht="45.75" customHeight="1">
-      <c r="B33" s="148" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
+      <c r="B33" s="178" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="178"/>
     </row>
     <row r="34" spans="2:12" ht="3.75" customHeight="1"/>
   </sheetData>
@@ -39849,55 +39793,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L11:U17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="9" width="9" style="130"/>
-    <col min="10" max="10" width="11.5" style="130" customWidth="1"/>
-    <col min="11" max="11" width="9" style="130" customWidth="1"/>
-    <col min="12" max="13" width="9" style="130"/>
-    <col min="14" max="14" width="2.5" style="130" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="130"/>
+    <col min="1" max="9" width="9" style="110"/>
+    <col min="10" max="10" width="11.5" style="110" customWidth="1"/>
+    <col min="11" max="11" width="9" style="110" customWidth="1"/>
+    <col min="12" max="13" width="9" style="110"/>
+    <col min="14" max="14" width="2.5" style="110" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="110"/>
   </cols>
   <sheetData>
     <row r="11" spans="12:21">
-      <c r="L11" s="131" t="s">
-        <v>235</v>
+      <c r="L11" s="179" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="12:21">
-      <c r="L12" s="131"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="12:21">
-      <c r="L13" s="131" t="s">
-        <v>236</v>
-      </c>
-      <c r="P13" s="145" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
+      <c r="L13" s="179" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
     </row>
     <row r="14" spans="12:21">
-      <c r="L14" s="131"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="12:21">
-      <c r="L15" s="131" t="s">
-        <v>229</v>
+      <c r="L15" s="179" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="12:21">
-      <c r="L16" s="131"/>
+      <c r="L16" s="111"/>
     </row>
     <row r="17" spans="12:12">
-      <c r="L17" s="131" t="s">
-        <v>230</v>
+      <c r="L17" s="179" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -39910,132 +39854,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="109"/>
-    <col min="2" max="2" width="47.25" style="109" customWidth="1"/>
-    <col min="3" max="5" width="17.875" style="109" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="109"/>
+    <col min="1" max="1" width="9" style="105"/>
+    <col min="2" max="2" width="47.25" style="105" customWidth="1"/>
+    <col min="3" max="5" width="17.875" style="105" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B6" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="118" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="118" t="s">
+      <c r="B6" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="181" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="181" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B7" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="111">
+      <c r="B7" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="183">
         <v>620814</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="183">
         <v>105402</v>
       </c>
-      <c r="E7" s="112">
+      <c r="E7" s="184">
         <f t="shared" ref="E7:E12" si="0">SUM(C7:D7)</f>
         <v>726216</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B8" s="113" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="114">
+      <c r="B8" s="185" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="186">
         <v>20694</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="186">
         <v>391</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="186">
         <f t="shared" si="0"/>
         <v>21085</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B9" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="114">
+      <c r="B9" s="185" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="186">
         <v>4169</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="186">
         <v>729</v>
       </c>
-      <c r="E9" s="114">
+      <c r="E9" s="186">
         <f t="shared" si="0"/>
         <v>4898</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B10" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="114">
+      <c r="B10" s="185" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="186">
         <v>98114</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="186">
         <v>4706</v>
       </c>
-      <c r="E10" s="114">
+      <c r="E10" s="186">
         <f t="shared" si="0"/>
         <v>102820</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B11" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="114">
+      <c r="B11" s="185" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="186">
         <v>743793</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="186">
         <v>111228</v>
       </c>
-      <c r="E11" s="114">
+      <c r="E11" s="186">
         <f t="shared" si="0"/>
         <v>855021</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B12" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="116">
+      <c r="B12" s="187" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="188">
         <v>2673985</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="188">
         <v>90445</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="188">
         <f t="shared" si="0"/>
         <v>2764430</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="39" customHeight="1">
-      <c r="B13" s="149" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
+      <c r="B13" s="189" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="175"/>
+      <c r="B14" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40050,7 +39994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C43" workbookViewId="0">
       <selection activeCell="G34" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -40077,7 +40021,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="47">
         <v>1.9</v>
@@ -40089,7 +40033,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="47">
         <v>7</v>
@@ -40101,7 +40045,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="47">
         <v>11.2</v>
@@ -40113,7 +40057,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="47">
         <v>15.2</v>
@@ -40193,7 +40137,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="47">
         <v>33.799999999999997</v>
@@ -40205,7 +40149,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="47">
         <v>20.5</v>
@@ -40217,7 +40161,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="47">
         <v>21.5</v>
@@ -40229,7 +40173,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="47">
         <v>22.6</v>
@@ -40241,7 +40185,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="47">
         <v>23.2</v>
@@ -40253,7 +40197,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="47">
         <v>23</v>
@@ -40265,7 +40209,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="47">
         <v>22.4</v>
@@ -40277,7 +40221,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="47">
         <v>22.2</v>
@@ -40289,7 +40233,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="47">
         <v>21.5</v>
@@ -40301,7 +40245,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="47">
         <v>20</v>
@@ -40330,7 +40274,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="47">
         <v>21.5</v>
@@ -40342,7 +40286,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="47">
         <v>23.2</v>
@@ -40354,7 +40298,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="47">
         <v>23</v>
@@ -40366,7 +40310,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="47">
         <v>22.2</v>
@@ -40378,7 +40322,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="47">
         <v>21.5</v>
@@ -40418,1466 +40362,1456 @@
   </sheetPr>
   <dimension ref="A1:BH24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="85" customWidth="1"/>
-    <col min="3" max="3" width="1.5" style="85" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="85" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="85" customWidth="1"/>
-    <col min="9" max="9" width="1.5" style="85" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="85" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="85" customWidth="1"/>
-    <col min="12" max="12" width="1.5" style="85" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="85" customWidth="1"/>
-    <col min="14" max="14" width="2.875" style="85" customWidth="1"/>
-    <col min="15" max="15" width="1.5" style="85" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="85" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="85" customWidth="1"/>
-    <col min="18" max="18" width="1.5" style="85" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="85" customWidth="1"/>
-    <col min="20" max="23" width="7" style="85"/>
-    <col min="24" max="25" width="3.625" style="85" customWidth="1"/>
-    <col min="26" max="26" width="7.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" style="85"/>
-    <col min="28" max="28" width="3.625" style="85" customWidth="1"/>
-    <col min="29" max="29" width="7.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7" style="85"/>
-    <col min="31" max="31" width="3.625" style="85" customWidth="1"/>
-    <col min="32" max="32" width="7.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" style="85"/>
-    <col min="34" max="34" width="3.625" style="85" customWidth="1"/>
-    <col min="35" max="35" width="7.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7" style="85"/>
-    <col min="37" max="37" width="3.625" style="85" customWidth="1"/>
-    <col min="38" max="38" width="7.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7" style="85"/>
-    <col min="40" max="40" width="3.625" style="85" customWidth="1"/>
-    <col min="41" max="41" width="9.5" style="85" customWidth="1"/>
-    <col min="42" max="16384" width="7" style="85"/>
+    <col min="1" max="1" width="13.625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="84" customWidth="1"/>
+    <col min="3" max="3" width="1.5" style="84" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="84" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="84" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="84" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
+    <col min="9" max="9" width="1.5" style="84" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="84" customWidth="1"/>
+    <col min="11" max="11" width="2.875" style="84" customWidth="1"/>
+    <col min="12" max="12" width="1.5" style="84" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="84" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="84" customWidth="1"/>
+    <col min="15" max="15" width="1.5" style="84" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="84" customWidth="1"/>
+    <col min="17" max="17" width="2.875" style="84" customWidth="1"/>
+    <col min="18" max="18" width="1.5" style="84" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="84" customWidth="1"/>
+    <col min="20" max="23" width="7" style="84"/>
+    <col min="24" max="25" width="3.625" style="84" customWidth="1"/>
+    <col min="26" max="26" width="7.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" style="84"/>
+    <col min="28" max="28" width="3.625" style="84" customWidth="1"/>
+    <col min="29" max="29" width="7.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7" style="84"/>
+    <col min="31" max="31" width="3.625" style="84" customWidth="1"/>
+    <col min="32" max="32" width="7.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7" style="84"/>
+    <col min="34" max="34" width="3.625" style="84" customWidth="1"/>
+    <col min="35" max="35" width="7.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7" style="84"/>
+    <col min="37" max="37" width="3.625" style="84" customWidth="1"/>
+    <col min="38" max="38" width="7.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7" style="84"/>
+    <col min="40" max="40" width="3.625" style="84" customWidth="1"/>
+    <col min="41" max="41" width="9.5" style="84" customWidth="1"/>
+    <col min="42" max="16384" width="7" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="84" customFormat="1" ht="15.75">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:60" s="83" customFormat="1" ht="15.75">
+      <c r="A1" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="W1" s="151" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="W1" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
-      <c r="AZ1" s="151"/>
-      <c r="BA1" s="151"/>
-      <c r="BB1" s="151"/>
-      <c r="BC1" s="151"/>
-      <c r="BD1" s="151"/>
-      <c r="BE1" s="151"/>
-      <c r="BF1" s="151"/>
-      <c r="BG1" s="151"/>
-      <c r="BH1" s="151"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="142"/>
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="142"/>
+      <c r="BD1" s="142"/>
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="142"/>
+      <c r="BG1" s="142"/>
+      <c r="BH1" s="142"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="85"/>
     </row>
     <row r="3" spans="1:60" ht="14.25" thickTop="1" thickBot="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152" t="s">
-        <v>238</v>
-      </c>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="152" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="152" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="152" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="138" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="158"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="152" t="s">
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="153"/>
-      <c r="AN3" s="153"/>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="153"/>
-      <c r="AR3" s="153"/>
-      <c r="AS3" s="153"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
     </row>
     <row r="4" spans="1:60" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="152" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="152" t="s">
+      <c r="E4" s="138"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="152" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="152" t="s">
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="135"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="135"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="141"/>
+      <c r="AP4" s="141"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="141"/>
+      <c r="AS4" s="141"/>
     </row>
     <row r="5" spans="1:60" ht="13.5" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="160" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="160" t="s">
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="155" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP5" s="155"/>
-      <c r="AQ5" s="155"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="155"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="136"/>
     </row>
     <row r="6" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="160" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="161"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="160" t="s">
+      <c r="K6" s="134"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="161"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="155" t="s">
+      <c r="N6" s="134"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="155" t="s">
+      <c r="Q6" s="136"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="156"/>
-      <c r="AM6" s="156"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="157"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="137"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="137"/>
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="137"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="139"/>
     </row>
     <row r="7" spans="1:60" ht="12.75" customHeight="1">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="157"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="139"/>
     </row>
     <row r="8" spans="1:60">
-      <c r="W8" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="X8" s="95"/>
-      <c r="Z8" s="96">
+      <c r="W8" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="X8" s="94"/>
+      <c r="Z8" s="95">
         <v>0.41</v>
       </c>
-      <c r="AA8" s="97">
+      <c r="AA8" s="96">
         <f>Z8</f>
         <v>0.41</v>
       </c>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="96">
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="95">
         <v>0.43</v>
       </c>
-      <c r="AD8" s="97">
+      <c r="AD8" s="96">
         <f>AC8</f>
         <v>0.43</v>
       </c>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99">
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98">
         <v>-37</v>
       </c>
-      <c r="AG8" s="97">
+      <c r="AG8" s="96">
         <f>AF8</f>
         <v>-37</v>
       </c>
-      <c r="AI8" s="96">
+      <c r="AI8" s="95">
         <v>-9.75</v>
       </c>
-      <c r="AJ8" s="97">
+      <c r="AJ8" s="96">
         <f>AI8</f>
         <v>-9.75</v>
       </c>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="96">
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="95">
         <v>0</v>
       </c>
-      <c r="AM8" s="97">
+      <c r="AM8" s="96">
         <f>AL8</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="96">
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="95">
         <v>0.41</v>
       </c>
-      <c r="AP8" s="97">
+      <c r="AP8" s="96">
         <f>AO8</f>
         <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:60">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="D9" s="95">
+        <v>0.41</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="95">
+        <v>0.43</v>
+      </c>
+      <c r="H9" s="95"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98">
+        <v>-37</v>
+      </c>
+      <c r="K9" s="98"/>
+      <c r="M9" s="95">
+        <v>-9.75</v>
+      </c>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="95">
+        <v>0.41</v>
+      </c>
+      <c r="T9" s="95"/>
+      <c r="W9" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="D9" s="96">
-        <v>0.41</v>
-      </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96">
-        <v>0.43</v>
-      </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99">
-        <v>-37</v>
-      </c>
-      <c r="K9" s="99"/>
-      <c r="M9" s="96">
-        <v>-9.75</v>
-      </c>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="96">
-        <v>0.41</v>
-      </c>
-      <c r="T9" s="96"/>
-      <c r="W9" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="X9" s="100"/>
-      <c r="Z9" s="96">
+      <c r="X9" s="99"/>
+      <c r="Z9" s="95">
         <v>2.06</v>
       </c>
-      <c r="AA9" s="97">
+      <c r="AA9" s="96">
         <f t="shared" ref="AA9:AA20" si="0">Z9</f>
         <v>2.06</v>
       </c>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="96">
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="95">
         <v>5.18</v>
       </c>
-      <c r="AD9" s="97">
+      <c r="AD9" s="96">
         <f t="shared" ref="AD9:AD20" si="1">AC9</f>
         <v>5.18</v>
       </c>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99">
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98">
         <v>-437</v>
       </c>
-      <c r="AG9" s="97">
+      <c r="AG9" s="96">
         <f t="shared" ref="AG9:AG20" si="2">AF9</f>
         <v>-437</v>
       </c>
-      <c r="AI9" s="96">
+      <c r="AI9" s="95">
         <v>-19.07</v>
       </c>
-      <c r="AJ9" s="97">
+      <c r="AJ9" s="96">
         <f t="shared" ref="AJ9:AJ20" si="3">AI9</f>
         <v>-19.07</v>
       </c>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="96">
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="95">
         <v>-0.27</v>
       </c>
-      <c r="AM9" s="97">
+      <c r="AM9" s="96">
         <f t="shared" ref="AM9:AM20" si="4">AL9</f>
         <v>-0.27</v>
       </c>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="96">
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="95">
         <v>2.29</v>
       </c>
-      <c r="AP9" s="97">
+      <c r="AP9" s="96">
         <f t="shared" ref="AP9:AP20" si="5">AO9</f>
         <v>2.29</v>
       </c>
     </row>
     <row r="10" spans="1:60">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="D10" s="95">
+        <v>2.06</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="95">
+        <v>5.18</v>
+      </c>
+      <c r="H10" s="95"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98">
+        <v>-437</v>
+      </c>
+      <c r="K10" s="98"/>
+      <c r="M10" s="95">
+        <v>-19.07</v>
+      </c>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="95">
+        <v>-0.27</v>
+      </c>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="95">
+        <v>2.29</v>
+      </c>
+      <c r="T10" s="95"/>
+      <c r="W10" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="D10" s="96">
-        <v>2.06</v>
-      </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="96">
-        <v>5.18</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99">
-        <v>-437</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="M10" s="96">
-        <v>-19.07</v>
-      </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="96">
-        <v>-0.27</v>
-      </c>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="96">
-        <v>2.29</v>
-      </c>
-      <c r="T10" s="96"/>
-      <c r="W10" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="X10" s="95"/>
-      <c r="Z10" s="96">
+      <c r="X10" s="94"/>
+      <c r="Z10" s="95">
         <v>2.34</v>
       </c>
-      <c r="AA10" s="97">
+      <c r="AA10" s="96">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="96">
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="95">
         <v>9.66</v>
       </c>
-      <c r="AD10" s="97">
+      <c r="AD10" s="96">
         <f t="shared" si="1"/>
         <v>9.66</v>
       </c>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99">
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98">
         <v>-814</v>
       </c>
-      <c r="AG10" s="97">
+      <c r="AG10" s="96">
         <f t="shared" si="2"/>
         <v>-814</v>
       </c>
-      <c r="AI10" s="96">
+      <c r="AI10" s="95">
         <v>-11.58</v>
       </c>
-      <c r="AJ10" s="97">
+      <c r="AJ10" s="96">
         <f t="shared" si="3"/>
         <v>-11.58</v>
       </c>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="96">
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="95">
         <v>-0.19</v>
       </c>
-      <c r="AM10" s="97">
+      <c r="AM10" s="96">
         <f t="shared" si="4"/>
         <v>-0.19</v>
       </c>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="96">
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="95">
         <v>7.68</v>
       </c>
-      <c r="AP10" s="97">
+      <c r="AP10" s="96">
         <f t="shared" si="5"/>
         <v>7.68</v>
       </c>
     </row>
     <row r="11" spans="1:60">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="D11" s="95">
+        <v>2.34</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="95">
+        <v>9.66</v>
+      </c>
+      <c r="H11" s="95"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98">
+        <v>-814</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="M11" s="95">
+        <v>-11.58</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="95">
+        <v>-0.19</v>
+      </c>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="95">
+        <v>7.68</v>
+      </c>
+      <c r="T11" s="95"/>
+      <c r="W11" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="D11" s="96">
-        <v>2.34</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96">
-        <v>9.66</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99">
-        <v>-814</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="M11" s="96">
-        <v>-11.58</v>
-      </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="96">
-        <v>-0.19</v>
-      </c>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="96">
-        <v>7.68</v>
-      </c>
-      <c r="T11" s="96"/>
-      <c r="W11" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="X11" s="95"/>
-      <c r="Z11" s="96">
+      <c r="X11" s="94"/>
+      <c r="Z11" s="95">
         <v>2.27</v>
       </c>
-      <c r="AA11" s="97">
+      <c r="AA11" s="96">
         <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="96">
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="95">
         <v>15.48</v>
       </c>
-      <c r="AD11" s="97">
+      <c r="AD11" s="96">
         <f t="shared" si="1"/>
         <v>15.48</v>
       </c>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99">
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98">
         <v>-1305</v>
       </c>
-      <c r="AG11" s="97">
+      <c r="AG11" s="96">
         <f t="shared" si="2"/>
         <v>-1305</v>
       </c>
-      <c r="AI11" s="96">
+      <c r="AI11" s="95">
         <v>-8.41</v>
       </c>
-      <c r="AJ11" s="97">
+      <c r="AJ11" s="96">
         <f t="shared" si="3"/>
         <v>-8.41</v>
       </c>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="96">
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="95">
         <v>0.2</v>
       </c>
-      <c r="AM11" s="97">
+      <c r="AM11" s="96">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="96">
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="95">
         <v>17.559999999999999</v>
       </c>
-      <c r="AP11" s="97">
+      <c r="AP11" s="96">
         <f t="shared" si="5"/>
         <v>17.559999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:60">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="D12" s="95">
+        <v>2.27</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="95">
+        <v>15.48</v>
+      </c>
+      <c r="H12" s="95"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98">
+        <v>-1305</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="M12" s="95">
+        <v>-8.41</v>
+      </c>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="95">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="T12" s="95"/>
+      <c r="W12" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="D12" s="96">
-        <v>2.27</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="96">
-        <v>15.48</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99">
-        <v>-1305</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="M12" s="96">
-        <v>-8.41</v>
-      </c>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="96">
-        <v>0.2</v>
-      </c>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="96">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="T12" s="96"/>
-      <c r="W12" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="X12" s="95"/>
-      <c r="Z12" s="96">
+      <c r="X12" s="94"/>
+      <c r="Z12" s="95">
         <v>3.6</v>
       </c>
-      <c r="AA12" s="97">
+      <c r="AA12" s="96">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="96">
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="95">
         <v>68.91</v>
       </c>
-      <c r="AD12" s="97">
+      <c r="AD12" s="96">
         <f t="shared" si="1"/>
         <v>68.91</v>
       </c>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99">
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98">
         <v>-5809</v>
       </c>
-      <c r="AG12" s="97">
+      <c r="AG12" s="96">
         <f t="shared" si="2"/>
         <v>-5809</v>
       </c>
-      <c r="AI12" s="96">
+      <c r="AI12" s="95">
         <v>-9.07</v>
       </c>
-      <c r="AJ12" s="97">
+      <c r="AJ12" s="96">
         <f t="shared" si="3"/>
         <v>-9.07</v>
       </c>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="96">
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="95">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM12" s="97">
+      <c r="AM12" s="96">
         <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="96">
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="95">
         <v>71.91</v>
       </c>
-      <c r="AP12" s="97">
+      <c r="AP12" s="96">
         <f t="shared" si="5"/>
         <v>71.91</v>
       </c>
     </row>
     <row r="13" spans="1:60">
-      <c r="A13" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="D13" s="96">
+      <c r="A13" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="D13" s="95">
         <v>3.6</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96">
+      <c r="E13" s="98"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="95">
         <v>68.91</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99">
+      <c r="H13" s="95"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98">
         <v>-5809</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="M13" s="96">
+      <c r="K13" s="98"/>
+      <c r="M13" s="95">
         <v>-9.07</v>
       </c>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="96">
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="95">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="96">
+      <c r="Q13" s="95"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="95">
         <v>71.91</v>
       </c>
-      <c r="T13" s="96"/>
-      <c r="W13" s="95" t="s">
+      <c r="T13" s="95"/>
+      <c r="W13" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="X13" s="95"/>
-      <c r="Z13" s="96">
+      <c r="X13" s="94"/>
+      <c r="Z13" s="95">
         <v>2.99</v>
       </c>
-      <c r="AA13" s="97">
+      <c r="AA13" s="96">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="96">
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="95">
         <v>100</v>
       </c>
-      <c r="AD13" s="97">
+      <c r="AD13" s="96">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99">
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98">
         <v>-1686</v>
       </c>
-      <c r="AG13" s="97">
+      <c r="AG13" s="96">
         <f t="shared" si="2"/>
         <v>-1686</v>
       </c>
-      <c r="AI13" s="96">
+      <c r="AI13" s="95">
         <v>-9.43</v>
       </c>
-      <c r="AJ13" s="97">
+      <c r="AJ13" s="96">
         <f t="shared" si="3"/>
         <v>-9.43</v>
       </c>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="96">
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="95">
         <v>0</v>
       </c>
-      <c r="AM13" s="97">
+      <c r="AM13" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="96">
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="95">
         <v>100</v>
       </c>
-      <c r="AP13" s="97">
+      <c r="AP13" s="96">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:60">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="D14" s="96">
+      <c r="B14" s="94"/>
+      <c r="D14" s="95">
         <v>2.99</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96">
+      <c r="E14" s="98"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="95">
         <v>100</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99">
+      <c r="H14" s="95"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98">
         <v>-1686</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="M14" s="96">
+      <c r="K14" s="98"/>
+      <c r="M14" s="95">
         <v>-9.43</v>
       </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="96">
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="95">
         <v>0</v>
       </c>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="96">
+      <c r="Q14" s="95"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="95">
         <v>100</v>
       </c>
-      <c r="T14" s="96"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="97"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="97"/>
+      <c r="T14" s="95"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="96"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="96"/>
     </row>
     <row r="15" spans="1:60">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="W15" s="101" t="s">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="W15" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="X15" s="95"/>
-      <c r="AA15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="98"/>
-      <c r="AP15" s="97"/>
+      <c r="X15" s="94"/>
+      <c r="AA15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AJ15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="97"/>
+      <c r="AP15" s="96"/>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="98"/>
-      <c r="W16" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="X16" s="95"/>
-      <c r="Z16" s="96">
+      <c r="B16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="97"/>
+      <c r="W16" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="94"/>
+      <c r="Z16" s="95">
         <v>4.03</v>
       </c>
-      <c r="AA16" s="97">
+      <c r="AA16" s="96">
         <f t="shared" si="0"/>
         <v>4.03</v>
       </c>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="96">
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="95">
         <v>56.09</v>
       </c>
-      <c r="AD16" s="97">
+      <c r="AD16" s="96">
         <f t="shared" si="1"/>
         <v>56.09</v>
       </c>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99">
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98">
         <v>-9457</v>
       </c>
-      <c r="AG16" s="97">
+      <c r="AG16" s="96">
         <f t="shared" si="2"/>
         <v>-9457</v>
       </c>
-      <c r="AI16" s="96">
+      <c r="AI16" s="95">
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AJ16" s="97">
+      <c r="AJ16" s="96">
         <f t="shared" si="3"/>
         <v>-9.4600000000000009</v>
       </c>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="96">
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="95">
         <v>-0.02</v>
       </c>
-      <c r="AM16" s="97">
+      <c r="AM16" s="96">
         <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="96">
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="95">
         <v>55.87</v>
       </c>
-      <c r="AP16" s="97">
+      <c r="AP16" s="96">
         <f t="shared" si="5"/>
         <v>55.87</v>
       </c>
     </row>
     <row r="17" spans="1:42">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="D17" s="95">
+        <v>4.03</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="95">
+        <v>56.09</v>
+      </c>
+      <c r="H17" s="95"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98">
+        <v>-9457</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="M17" s="95">
+        <v>-9.4600000000000009</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="95">
+        <v>-0.02</v>
+      </c>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="95">
+        <v>55.87</v>
+      </c>
+      <c r="T17" s="95"/>
+      <c r="W17" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="D17" s="96">
-        <v>4.03</v>
-      </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="96">
-        <v>56.09</v>
-      </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99">
-        <v>-9457</v>
-      </c>
-      <c r="K17" s="99"/>
-      <c r="M17" s="96">
-        <v>-9.4600000000000009</v>
-      </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="96">
-        <v>-0.02</v>
-      </c>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="96">
-        <v>55.87</v>
-      </c>
-      <c r="T17" s="96"/>
-      <c r="W17" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="X17" s="95"/>
-      <c r="Z17" s="96">
+      <c r="X17" s="94"/>
+      <c r="Z17" s="95">
         <v>4.68</v>
       </c>
-      <c r="AA17" s="97">
+      <c r="AA17" s="96">
         <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="96">
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="95">
         <v>48.1</v>
       </c>
-      <c r="AD17" s="97">
+      <c r="AD17" s="96">
         <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99">
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98">
         <v>-16223</v>
       </c>
-      <c r="AG17" s="97">
+      <c r="AG17" s="96">
         <f t="shared" si="2"/>
         <v>-16223</v>
       </c>
-      <c r="AI17" s="96">
+      <c r="AI17" s="95">
         <v>-10.39</v>
       </c>
-      <c r="AJ17" s="97">
+      <c r="AJ17" s="96">
         <f t="shared" si="3"/>
         <v>-10.39</v>
       </c>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="96">
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="95">
         <v>-0.46</v>
       </c>
-      <c r="AM17" s="97">
+      <c r="AM17" s="96">
         <f t="shared" si="4"/>
         <v>-0.46</v>
       </c>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="96">
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="95">
         <v>43.22</v>
       </c>
-      <c r="AP17" s="97">
+      <c r="AP17" s="96">
         <f t="shared" si="5"/>
         <v>43.22</v>
       </c>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="94"/>
+      <c r="D18" s="95">
+        <v>4.68</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="95">
+        <v>48.1</v>
+      </c>
+      <c r="H18" s="95"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98">
+        <v>-16223</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="M18" s="95">
+        <v>-10.39</v>
+      </c>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="95">
+        <v>-0.46</v>
+      </c>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="95">
+        <v>43.22</v>
+      </c>
+      <c r="T18" s="95"/>
+      <c r="W18" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="D18" s="96">
-        <v>4.68</v>
-      </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96">
-        <v>48.1</v>
-      </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99">
-        <v>-16223</v>
-      </c>
-      <c r="K18" s="99"/>
-      <c r="M18" s="96">
-        <v>-10.39</v>
-      </c>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="96">
-        <v>-0.46</v>
-      </c>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="96">
-        <v>43.22</v>
-      </c>
-      <c r="T18" s="96"/>
-      <c r="W18" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="X18" s="95"/>
-      <c r="Z18" s="96">
+      <c r="X18" s="94"/>
+      <c r="Z18" s="95">
         <v>6.74</v>
       </c>
-      <c r="AA18" s="97">
+      <c r="AA18" s="96">
         <f t="shared" si="0"/>
         <v>6.74</v>
       </c>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="96">
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="95">
         <v>36.78</v>
       </c>
-      <c r="AD18" s="97">
+      <c r="AD18" s="96">
         <f t="shared" si="1"/>
         <v>36.78</v>
       </c>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99">
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98">
         <v>-62007</v>
       </c>
-      <c r="AG18" s="97">
+      <c r="AG18" s="96">
         <f t="shared" si="2"/>
         <v>-62007</v>
       </c>
-      <c r="AI18" s="96">
+      <c r="AI18" s="95">
         <v>-13.37</v>
       </c>
-      <c r="AJ18" s="97">
+      <c r="AJ18" s="96">
         <f t="shared" si="3"/>
         <v>-13.37</v>
       </c>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="96">
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="95">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AM18" s="97">
+      <c r="AM18" s="96">
         <f t="shared" si="4"/>
         <v>-1.1299999999999999</v>
       </c>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="96">
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="95">
         <v>24.83</v>
       </c>
-      <c r="AP18" s="97">
+      <c r="AP18" s="96">
         <f t="shared" si="5"/>
         <v>24.83</v>
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="D19" s="95">
+        <v>6.74</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="95">
+        <v>36.78</v>
+      </c>
+      <c r="H19" s="95"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98">
+        <v>-62007</v>
+      </c>
+      <c r="K19" s="98"/>
+      <c r="M19" s="95">
+        <v>-13.37</v>
+      </c>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="95">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="95">
+        <v>24.83</v>
+      </c>
+      <c r="T19" s="95"/>
+      <c r="W19" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="D19" s="96">
-        <v>6.74</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="96">
-        <v>36.78</v>
-      </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99">
-        <v>-62007</v>
-      </c>
-      <c r="K19" s="99"/>
-      <c r="M19" s="96">
-        <v>-13.37</v>
-      </c>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="96">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="96">
-        <v>24.83</v>
-      </c>
-      <c r="T19" s="96"/>
-      <c r="W19" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="X19" s="95"/>
-      <c r="Z19" s="96">
+      <c r="X19" s="94"/>
+      <c r="Z19" s="95">
         <v>7.33</v>
       </c>
-      <c r="AA19" s="97">
+      <c r="AA19" s="96">
         <f t="shared" si="0"/>
         <v>7.33</v>
       </c>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="96">
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="95">
         <v>31.05</v>
       </c>
-      <c r="AD19" s="97">
+      <c r="AD19" s="96">
         <f t="shared" si="1"/>
         <v>31.05</v>
       </c>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99">
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98">
         <v>-104678</v>
       </c>
-      <c r="AG19" s="97">
+      <c r="AG19" s="96">
         <f t="shared" si="2"/>
         <v>-104678</v>
       </c>
-      <c r="AI19" s="96">
+      <c r="AI19" s="95">
         <v>-13.91</v>
       </c>
-      <c r="AJ19" s="97">
+      <c r="AJ19" s="96">
         <f t="shared" si="3"/>
         <v>-13.91</v>
       </c>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="96">
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="95">
         <v>-1.04</v>
       </c>
-      <c r="AM19" s="97">
+      <c r="AM19" s="96">
         <f t="shared" si="4"/>
         <v>-1.04</v>
       </c>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="96">
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="95">
         <v>20.010000000000002</v>
       </c>
-      <c r="AP19" s="97">
+      <c r="AP19" s="96">
         <f t="shared" si="5"/>
         <v>20.010000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="D20" s="95">
+        <v>7.33</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="95">
+        <v>31.05</v>
+      </c>
+      <c r="H20" s="95"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98">
+        <v>-104678</v>
+      </c>
+      <c r="K20" s="98"/>
+      <c r="M20" s="95">
+        <v>-13.91</v>
+      </c>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="95">
+        <v>-1.04</v>
+      </c>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="95">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="T20" s="95"/>
+      <c r="W20" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="D20" s="96">
-        <v>7.33</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="96">
-        <v>31.05</v>
-      </c>
-      <c r="H20" s="96"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99">
-        <v>-104678</v>
-      </c>
-      <c r="K20" s="99"/>
-      <c r="M20" s="96">
-        <v>-13.91</v>
-      </c>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="96">
-        <v>-1.04</v>
-      </c>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="96">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="T20" s="96"/>
-      <c r="W20" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="X20" s="95"/>
-      <c r="Z20" s="96">
+      <c r="X20" s="94"/>
+      <c r="Z20" s="95">
         <v>7.81</v>
       </c>
-      <c r="AA20" s="97">
+      <c r="AA20" s="96">
         <f t="shared" si="0"/>
         <v>7.81</v>
       </c>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="96">
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="95">
         <v>18.63</v>
       </c>
-      <c r="AD20" s="97">
+      <c r="AD20" s="96">
         <f t="shared" si="1"/>
         <v>18.63</v>
       </c>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99">
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98">
         <v>-314150</v>
       </c>
-      <c r="AG20" s="97">
+      <c r="AG20" s="96">
         <f t="shared" si="2"/>
         <v>-314150</v>
       </c>
-      <c r="AI20" s="96">
+      <c r="AI20" s="95">
         <v>-13.68</v>
       </c>
-      <c r="AJ20" s="97">
+      <c r="AJ20" s="96">
         <f t="shared" si="3"/>
         <v>-13.68</v>
       </c>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="96">
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="95">
         <v>-0.6</v>
       </c>
-      <c r="AM20" s="97">
+      <c r="AM20" s="96">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="96">
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="95">
         <v>12.25</v>
       </c>
-      <c r="AP20" s="97">
+      <c r="AP20" s="96">
         <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="D21" s="96">
+      <c r="A21" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="D21" s="95">
         <v>7.81</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="96">
+      <c r="E21" s="98"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="95">
         <v>18.63</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99">
+      <c r="H21" s="95"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98">
         <v>-314150</v>
       </c>
-      <c r="K21" s="99"/>
-      <c r="M21" s="96">
+      <c r="K21" s="98"/>
+      <c r="M21" s="95">
         <v>-13.68</v>
       </c>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="96">
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="95">
         <v>-0.6</v>
       </c>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="96">
+      <c r="Q21" s="95"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="95">
         <v>12.25</v>
       </c>
-      <c r="T21" s="96"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="102"/>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="102"/>
-      <c r="AJ21" s="102"/>
-      <c r="AK21" s="102"/>
-      <c r="AL21" s="102"/>
-      <c r="AM21" s="102"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="102"/>
+      <c r="T21" s="95"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="101"/>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="W22" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="X22" s="103"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="W22" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="X22" s="102"/>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="103"/>
+      <c r="A23" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="102"/>
     </row>
     <row r="24" spans="1:42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="U3:V6"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AF5:AG6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="P4:S5"/>
     <mergeCell ref="AP1:BH1"/>
     <mergeCell ref="AP3:AS4"/>
     <mergeCell ref="AP5:AQ6"/>
@@ -41894,6 +41828,16 @@
     <mergeCell ref="AC3:AD6"/>
     <mergeCell ref="AF3:AJ4"/>
     <mergeCell ref="AL3:AO4"/>
+    <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="P4:S5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="U3:V6"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="AA8:AA20">
@@ -42065,7 +42009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="G28" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
@@ -42864,35 +42808,35 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="164" t="s">
+      <c r="B41" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="164"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="9"/>
@@ -42922,7 +42866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" workbookViewId="0">
+    <sheetView topLeftCell="F42" workbookViewId="0">
       <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
